--- a/ConsoleApp1/ConsoleApp1/data.xlsx
+++ b/ConsoleApp1/ConsoleApp1/data.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">NewText1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewText2</t>
+  </si>
   <si>
     <t xml:space="preserve">OldText1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OldText2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FindMe</t>
   </si>
   <si>
     <t xml:space="preserve">ReplacedValue</t>
   </si>
   <si>
-    <t xml:space="preserve">NewText1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewText2</t>
+    <t xml:space="preserve">yes baby</t>
   </si>
 </sst>
 </file>
@@ -39,13 +36,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -86,10 +89,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -410,7 +413,7 @@
     <col min="6" max="6" width="12.43357142857143" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -428,7 +431,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -436,7 +439,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -444,7 +447,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -452,7 +455,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -466,19 +469,21 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -486,7 +491,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -494,7 +499,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -502,7 +507,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -512,7 +517,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/ConsoleApp1/ConsoleApp1/data.xlsx
+++ b/ConsoleApp1/ConsoleApp1/data.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
-    <t xml:space="preserve">NewText1</t>
+    <t xml:space="preserve">yes babe</t>
   </si>
   <si>
     <t xml:space="preserve">NewText2</t>
   </si>
   <si>
-    <t xml:space="preserve">OldText1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ReplacedValue</t>
   </si>
   <si>
-    <t xml:space="preserve">yes baby</t>
+    <t xml:space="preserve">yes Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes Babe</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -532,7 +532,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ConsoleApp1/ConsoleApp1/data.xlsx
+++ b/ConsoleApp1/ConsoleApp1/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t xml:space="preserve">yes babe</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">yes Babe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja Baby</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -477,7 +480,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
